--- a/Assets/Resources/csv/ThemeList.xlsx
+++ b/Assets/Resources/csv/ThemeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\10_dev\game\WordWolf\Assets\Resources\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEEADD1-88C7-406D-87A3-328CEFFA72C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906338DE-4466-4E2E-9B3A-99BD888A42BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>五人で原付に乗る家族</t>
   </si>
@@ -37,24 +37,6 @@
     <t>裏山から埋蔵金が出てくる</t>
   </si>
   <si>
-    <t>きまぐれなコック</t>
-  </si>
-  <si>
-    <t>イライラのピーク</t>
-  </si>
-  <si>
-    <t>ベテランの刑事</t>
-  </si>
-  <si>
-    <t>ニコラス・ケイジ</t>
-  </si>
-  <si>
-    <t>スケバンの刑事</t>
-  </si>
-  <si>
-    <t>インテリな刑事</t>
-  </si>
-  <si>
     <t>自分のおしっこなら手についても気にしない</t>
   </si>
   <si>
@@ -79,52 +61,19 @@
     <t>きびだんごを持っていない桃太郎</t>
   </si>
   <si>
-    <t>キレ気味のコック</t>
-  </si>
-  <si>
-    <t>見え見えのキック</t>
-  </si>
-  <si>
     <t>一人だけビーフ</t>
   </si>
   <si>
-    <t>自分だけのブーム</t>
-  </si>
-  <si>
     <t>抑えめのビーム</t>
   </si>
   <si>
     <t>控えめのリード</t>
   </si>
   <si>
-    <t>鼻くそが主食</t>
-  </si>
-  <si>
-    <t>ぬかみそがおかず</t>
-  </si>
-  <si>
-    <t>入れ歯の代わりにトウモロコシ</t>
-  </si>
-  <si>
-    <t>補聴器の代わりにパンくず</t>
-  </si>
-  <si>
     <t>野菜好きのデブ</t>
   </si>
   <si>
-    <t>シャンプーにこだわるハゲ</t>
-  </si>
-  <si>
-    <t>ドライヤーが長い坊主</t>
-  </si>
-  <si>
     <t>風呂が長いジジイ</t>
-  </si>
-  <si>
-    <t>三つ編みの坊主</t>
-  </si>
-  <si>
-    <t>狭い通路にデブ</t>
   </si>
   <si>
     <t>牛タンの食べ放題</t>
@@ -182,18 +131,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ギリギリ遅刻してくるやつ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>冬なのに半そで半ズボンのやつ</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>先生のモノマネがうまいやつ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>かくれんぼで最後まで見つからないやつ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -203,10 +144,6 @@
   </si>
   <si>
     <t>公道を走るトラクター</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>イライラのピーク</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -221,14 +158,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>やさしそうなデブ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全て分かったように話すうざい奴</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>教科書やノートをちぎっては食べちぎっては食べる人</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -253,22 +182,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>先生のいないときだけイキるやつ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>２リットルペットボトルをがぶ飲みするデブ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>先生を「ママ！」と間違えて呼んでしまうやつ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>いじめられた訳でもないのに学校にこなくなったやつ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>なぜかずっと鉛筆を使い続けるストイックなやつ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -288,9 +201,6 @@
     <t>theme2</t>
   </si>
   <si>
-    <t>theme3</t>
-  </si>
-  <si>
     <t>theme4</t>
   </si>
   <si>
@@ -300,12 +210,6 @@
     <t>theme6</t>
   </si>
   <si>
-    <t>theme7</t>
-  </si>
-  <si>
-    <t>theme8</t>
-  </si>
-  <si>
     <t>theme9</t>
   </si>
   <si>
@@ -316,9 +220,6 @@
   </si>
   <si>
     <t>theme12</t>
-  </si>
-  <si>
-    <t>theme13</t>
   </si>
   <si>
     <t>theme14</t>
@@ -358,13 +259,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>食後にはみがきをしない</t>
-    <rPh sb="0" eb="2">
-      <t>ショクゴ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>公衆トイレで人がいても気にせずおならをする</t>
     <rPh sb="0" eb="2">
       <t>コウシュウ</t>
@@ -378,16 +272,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ラーメンを音を立ててすする</t>
-    <rPh sb="5" eb="6">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>イスにあぐらをかいて座る</t>
     <rPh sb="10" eb="11">
       <t>スワ</t>
@@ -419,16 +303,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>とんがりコーンを指につけて遊ぶ</t>
-    <rPh sb="8" eb="9">
-      <t>ユビ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アソ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>足でドアを閉める</t>
     <rPh sb="0" eb="1">
       <t>アシ</t>
@@ -486,24 +360,295 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>すぐに忍道を曲げるナルト</t>
+    <t>theme3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>先生を「ママ！」と間違えて呼んでしまう</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>唐揚げの食べ放題</t>
+    <rPh sb="0" eb="2">
+      <t>カラア</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>リンスにこだわるハゲ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドライヤーの時間が長いハゲ</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>theme7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自分だけのブーム</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>theme8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>はみがきをしないで寝る</t>
+    <rPh sb="9" eb="10">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンタクトを付けたまま寝る</t>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>音を立ててラーメンをすする</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>theme15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>theme16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>theme17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>改札で何度もPASMOが弾かれる</t>
+    <rPh sb="0" eb="2">
+      <t>カイサツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナンド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風呂から出てすぐにうんこをしたくなる</t>
+    <rPh sb="0" eb="2">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>定価で買ったばかりの商品がすぐに50％オフになる</t>
+    <rPh sb="0" eb="2">
+      <t>テイカ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>シノブ</t>
-    </rPh>
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>目の前で電車のドアがしまる</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポテチの袋を開けたと同時に中身をぶちまける</t>
     <rPh sb="4" eb="5">
-      <t>ミチ</t>
+      <t>フクロ</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どうも枕がしっくりこなくて値付けない</t>
+    <rPh sb="3" eb="4">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>映画館でひじ掛けが隣のやつに奪われる</t>
+    <rPh sb="0" eb="3">
+      <t>エイガカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>公衆トイレでうんこをしたら紙がない</t>
+    <rPh sb="0" eb="2">
+      <t>コウシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ウォシュレットの勢いがMAXになっていてビクンッてなる</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>グーグルマップのバス停の場所が現実と違いすぎる</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コンビニで買った弁当に割り箸がついてない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>この戦いが終わったら俺、結婚するんだ</t>
+    <rPh sb="2" eb="3">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッコン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>殺人鬼がいるかもしれないのに一緒の部屋で寝れるか！</t>
+    <rPh sb="0" eb="3">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>映画のオープニングでいちゃつくカップル</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>断崖絶壁で自供し始める犯人</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全員でお茶を飲んでる時に自供し始める犯人</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>真夜中に誰か訪ねてきて、不審に思い、覗き穴から外を覗こうとするやつ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>「す……素晴らしい……」と感動する博士</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>先に行け！後で必ず合流する！</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>犯人につながる重要なヒントを手に入れた脇役</t>
+    <rPh sb="0" eb="2">
+      <t>ハンニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ワキヤク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>やったか？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>組織の秘密を今まさにゲロしようとする悪党</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +808,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3366FF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1089,8 +1241,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1461,247 +1616,247 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -1709,250 +1864,250 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -1960,7 +2115,7 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -1968,7 +2123,7 @@
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -1976,15 +2131,15 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -1992,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -2000,7 +2155,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -2008,7 +2163,7 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -2016,7 +2171,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -2024,143 +2179,143 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
